--- a/sample_data/sample.xlsx
+++ b/sample_data/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baba/Dropbox/project/iamatch/sample_data/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baba/Dropbox/project/iamatch/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B37851C1-987E-7E4E-AC2A-391AB2BBF623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178E05B5-8A6B-0846-92EE-1E9B40556DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="6460" windowWidth="27500" windowHeight="16440"/>
+    <workbookView xWindow="12240" yWindow="6460" windowWidth="27500" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -233,24 +233,6 @@
   </si>
   <si>
     <t>ef9237f7-a5dd-4826-93e6-037b12a2f55a</t>
-  </si>
-  <si>
-    <t>2060ac78-7333-4dfb-afb5-fc294c763443</t>
-  </si>
-  <si>
-    <t>3bc87ba8-c44a-43ad-addd-11494ad7a11e</t>
-  </si>
-  <si>
-    <t>69313e22-a970-4661-8bc8-2c461f8ab3d5</t>
-  </si>
-  <si>
-    <t>5a9644c7-9491-47f4-87b4-dfba140a0f1e</t>
-  </si>
-  <si>
-    <t>a1f525fb-1552-4ca0-821c-60c2b06b46f2</t>
-  </si>
-  <si>
-    <t>332825e3-42e7-432d-974f-1ce4b90656c7</t>
   </si>
   <si>
     <t>729a85bf-ede1-438e-99cc-08272c42810e</t>
@@ -265,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1210,10 +1192,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -5711,7 +5695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" ht="29" customHeight="1">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5728,25 +5712,25 @@
         <v>15</v>
       </c>
       <c r="F43">
-        <v>3385812</v>
+        <v>9562625</v>
       </c>
       <c r="G43" t="s">
         <v>71</v>
       </c>
       <c r="H43">
-        <v>3.0964599326918698</v>
+        <v>3.5850712458572098</v>
       </c>
       <c r="I43">
         <v>103</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K43">
         <v>5</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M43">
         <v>4</v>
@@ -5758,10 +5742,10 @@
         <v>4</v>
       </c>
       <c r="P43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R43" t="s">
         <v>20</v>
@@ -5770,46 +5754,46 @@
         <v>3</v>
       </c>
       <c r="T43" t="s">
+        <v>27</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43" t="s">
+        <v>17</v>
+      </c>
+      <c r="W43">
+        <v>4</v>
+      </c>
+      <c r="X43" t="s">
         <v>25</v>
       </c>
-      <c r="U43">
-        <v>3</v>
-      </c>
-      <c r="V43" t="s">
-        <v>28</v>
-      </c>
-      <c r="W43">
-        <v>3</v>
-      </c>
-      <c r="X43" t="s">
-        <v>17</v>
-      </c>
       <c r="Y43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z43" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AA43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC43">
+        <v>4</v>
+      </c>
+      <c r="AD43" t="s">
         <v>19</v>
       </c>
-      <c r="AC43">
-        <v>3</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>21</v>
-      </c>
       <c r="AE43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH43" t="s">
         <v>29</v>
@@ -5835,88 +5819,88 @@
         <v>15</v>
       </c>
       <c r="F44">
-        <v>3013135</v>
+        <v>4713454</v>
       </c>
       <c r="G44" t="s">
         <v>72</v>
       </c>
       <c r="H44">
-        <v>3.0054513700807699</v>
+        <v>2.3902064289220899</v>
       </c>
       <c r="I44">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K44">
         <v>5</v>
       </c>
       <c r="L44" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
       <c r="P44" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s">
+        <v>26</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s">
         <v>27</v>
       </c>
-      <c r="Q44">
-        <v>3</v>
-      </c>
-      <c r="R44" t="s">
+      <c r="U44">
+        <v>3</v>
+      </c>
+      <c r="V44" t="s">
+        <v>25</v>
+      </c>
+      <c r="W44">
+        <v>5</v>
+      </c>
+      <c r="X44" t="s">
         <v>18</v>
       </c>
-      <c r="S44">
-        <v>4</v>
-      </c>
-      <c r="T44" t="s">
-        <v>21</v>
-      </c>
-      <c r="U44">
-        <v>4</v>
-      </c>
-      <c r="V44" t="s">
-        <v>19</v>
-      </c>
-      <c r="W44">
-        <v>4</v>
-      </c>
-      <c r="X44" t="s">
-        <v>26</v>
-      </c>
       <c r="Y44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z44" t="s">
         <v>17</v>
       </c>
       <c r="AA44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH44" t="s">
         <v>29</v>
@@ -5942,735 +5926,93 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>9860676</v>
+        <v>3815811</v>
       </c>
       <c r="G45" t="s">
         <v>73</v>
       </c>
       <c r="H45">
-        <v>3.1286809579644501</v>
+        <v>2.8398687044044602</v>
       </c>
       <c r="I45">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K45">
         <v>5</v>
       </c>
       <c r="L45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R45" t="s">
         <v>19</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U45">
         <v>5</v>
       </c>
       <c r="V45" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="W45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X45" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z45" t="s">
         <v>21</v>
       </c>
       <c r="AA45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC45">
+        <v>3</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE45">
+        <v>5</v>
+      </c>
+      <c r="AF45" t="s">
         <v>27</v>
       </c>
-      <c r="AC45">
-        <v>4</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE45">
+      <c r="AG45">
         <v>1</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
       </c>
       <c r="AH45" t="s">
         <v>29</v>
       </c>
       <c r="AI45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46">
-        <v>5272109</v>
-      </c>
-      <c r="G46" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46">
-        <v>3.4839410513059899</v>
-      </c>
-      <c r="I46">
-        <v>95</v>
-      </c>
-      <c r="J46" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46">
-        <v>5</v>
-      </c>
-      <c r="L46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s">
-        <v>18</v>
-      </c>
-      <c r="O46">
-        <v>5</v>
-      </c>
-      <c r="P46" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q46">
-        <v>5</v>
-      </c>
-      <c r="R46" t="s">
-        <v>17</v>
-      </c>
-      <c r="S46">
-        <v>4</v>
-      </c>
-      <c r="T46" t="s">
-        <v>28</v>
-      </c>
-      <c r="U46">
-        <v>5</v>
-      </c>
-      <c r="V46" t="s">
-        <v>24</v>
-      </c>
-      <c r="W46">
-        <v>3</v>
-      </c>
-      <c r="X46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y46">
-        <v>5</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA46">
-        <v>5</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC46">
-        <v>2</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE46">
-        <v>5</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG46">
-        <v>5</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47">
-        <v>8249825</v>
-      </c>
-      <c r="G47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47">
-        <v>3.3030043740458801</v>
-      </c>
-      <c r="I47">
-        <v>95</v>
-      </c>
-      <c r="J47" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
-      <c r="L47" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47">
-        <v>5</v>
-      </c>
-      <c r="N47" t="s">
-        <v>22</v>
-      </c>
-      <c r="O47">
-        <v>5</v>
-      </c>
-      <c r="P47" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q47">
-        <v>3</v>
-      </c>
-      <c r="R47" t="s">
-        <v>17</v>
-      </c>
-      <c r="S47">
-        <v>3</v>
-      </c>
-      <c r="T47" t="s">
-        <v>23</v>
-      </c>
-      <c r="U47">
-        <v>3</v>
-      </c>
-      <c r="V47" t="s">
-        <v>24</v>
-      </c>
-      <c r="W47">
-        <v>4</v>
-      </c>
-      <c r="X47" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y47">
-        <v>3</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA47">
-        <v>1</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC47">
-        <v>1</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE47">
-        <v>4</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG47">
-        <v>4</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48">
-        <v>4067086</v>
-      </c>
-      <c r="G48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48">
-        <v>2.71773534969644</v>
-      </c>
-      <c r="I48">
-        <v>101</v>
-      </c>
-      <c r="J48" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48">
-        <v>5</v>
-      </c>
-      <c r="L48" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48">
-        <v>4</v>
-      </c>
-      <c r="N48" t="s">
-        <v>27</v>
-      </c>
-      <c r="O48">
-        <v>5</v>
-      </c>
-      <c r="P48" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48">
-        <v>5</v>
-      </c>
-      <c r="R48" t="s">
-        <v>19</v>
-      </c>
-      <c r="S48">
-        <v>3</v>
-      </c>
-      <c r="T48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U48">
-        <v>2</v>
-      </c>
-      <c r="V48" t="s">
-        <v>24</v>
-      </c>
-      <c r="W48">
-        <v>4</v>
-      </c>
-      <c r="X48" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y48">
-        <v>3</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA48">
-        <v>3</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC48">
-        <v>3</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE48">
-        <v>4</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG48">
-        <v>2</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49">
-        <v>9562625</v>
-      </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49">
-        <v>3.5850712458572098</v>
-      </c>
-      <c r="I49">
-        <v>103</v>
-      </c>
-      <c r="J49" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49">
-        <v>5</v>
-      </c>
-      <c r="L49" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s">
-        <v>23</v>
-      </c>
-      <c r="O49">
-        <v>4</v>
-      </c>
-      <c r="P49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q49">
-        <v>5</v>
-      </c>
-      <c r="R49" t="s">
-        <v>20</v>
-      </c>
-      <c r="S49">
-        <v>3</v>
-      </c>
-      <c r="T49" t="s">
-        <v>27</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="V49" t="s">
-        <v>17</v>
-      </c>
-      <c r="W49">
-        <v>4</v>
-      </c>
-      <c r="X49" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y49">
-        <v>3</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA49">
-        <v>3</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC49">
-        <v>4</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE49">
-        <v>2</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG49">
-        <v>5</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50">
-        <v>4713454</v>
-      </c>
-      <c r="G50" t="s">
-        <v>78</v>
-      </c>
-      <c r="H50">
-        <v>2.3902064289220899</v>
-      </c>
-      <c r="I50">
-        <v>113</v>
-      </c>
-      <c r="J50" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-      <c r="L50" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50">
-        <v>4</v>
-      </c>
-      <c r="N50" t="s">
-        <v>22</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
-      <c r="P50" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q50">
-        <v>5</v>
-      </c>
-      <c r="R50" t="s">
-        <v>26</v>
-      </c>
-      <c r="S50">
-        <v>4</v>
-      </c>
-      <c r="T50" t="s">
-        <v>27</v>
-      </c>
-      <c r="U50">
-        <v>3</v>
-      </c>
-      <c r="V50" t="s">
-        <v>25</v>
-      </c>
-      <c r="W50">
-        <v>5</v>
-      </c>
-      <c r="X50" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y50">
-        <v>5</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA50">
-        <v>2</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC50">
-        <v>2</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE50">
-        <v>3</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG50">
-        <v>3</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51">
-        <v>3815811</v>
-      </c>
-      <c r="G51" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51">
-        <v>2.8398687044044602</v>
-      </c>
-      <c r="I51">
-        <v>97</v>
-      </c>
-      <c r="J51" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
-      <c r="L51" t="s">
-        <v>22</v>
-      </c>
-      <c r="M51">
-        <v>4</v>
-      </c>
-      <c r="N51" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51">
-        <v>4</v>
-      </c>
-      <c r="P51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q51">
-        <v>4</v>
-      </c>
-      <c r="R51" t="s">
-        <v>19</v>
-      </c>
-      <c r="S51">
-        <v>4</v>
-      </c>
-      <c r="T51" t="s">
-        <v>26</v>
-      </c>
-      <c r="U51">
-        <v>5</v>
-      </c>
-      <c r="V51" t="s">
-        <v>17</v>
-      </c>
-      <c r="W51">
-        <v>3</v>
-      </c>
-      <c r="X51" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y51">
-        <v>5</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA51">
-        <v>4</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC51">
-        <v>3</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE51">
-        <v>5</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG51">
-        <v>1</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI51" t="s">
         <v>30</v>
       </c>
     </row>
